--- a/Api.ManagerGift/DownloadWordExcel/ 2020.xlsx
+++ b/Api.ManagerGift/DownloadWordExcel/ 2020.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
@@ -16,12 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="54">
   <si>
     <t/>
   </si>
   <si>
-    <t>Từ ngày 2020-03-29, Đến ngày 2020-04-22</t>
+    <t>Từ ngày 2010-06-05, Đến ngày 2020-05-27</t>
   </si>
   <si>
     <t>STT</t>
@@ -60,247 +60,121 @@
     <t>1</t>
   </si>
   <si>
-    <t>áo mưa CB</t>
-  </si>
-  <si>
-    <t>AM1</t>
+    <t>Quà tặng hiện vật - Điện thoại iphone - Iphone 6 plus</t>
+  </si>
+  <si>
+    <t>iphone6plus</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Cái</t>
+  </si>
+  <si>
+    <t>15,000,000</t>
+  </si>
+  <si>
+    <t>180,000,000</t>
+  </si>
+  <si>
+    <t>25-05-2020</t>
+  </si>
+  <si>
+    <t>P. Quản lý bán hàng</t>
+  </si>
+  <si>
+    <t>Bến Tre</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>Cái</t>
-  </si>
-  <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>200000</t>
-  </si>
-  <si>
-    <t>21-04-2020</t>
-  </si>
-  <si>
-    <t>P. Quản lý bán hàng</t>
+    <t>đồ sắt - bát sứ - Gốm Vĩnh Phúc</t>
+  </si>
+  <si>
+    <t>GVP</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
+    <t>80,000,000</t>
+  </si>
+  <si>
+    <t>800,000,000</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>PGD Long Hựu</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>HN 1</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>400000</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>225,000,000</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Quà tặng hiện vật - Khẩu trang y tế dệt kin đông xuân - Khẩu trang y tế dệt kim đông xuân màu trắng</t>
+  </si>
+  <si>
+    <t>khautrang_trang</t>
+  </si>
+  <si>
+    <t>50,000</t>
+  </si>
+  <si>
+    <t>500,000</t>
+  </si>
+  <si>
+    <t>16-05-2020</t>
+  </si>
+  <si>
+    <t>CN Hà Nội</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>150,000,000</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>28-04-2020</t>
+  </si>
+  <si>
+    <t>27-04-2020</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>200,000</t>
   </si>
   <si>
     <t>HN 2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>1500000</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>2000000</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>500000</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Điện thoại</t>
-  </si>
-  <si>
-    <t>ĐT</t>
-  </si>
-  <si>
-    <t>túi</t>
-  </si>
-  <si>
-    <t>1000000</t>
-  </si>
-  <si>
-    <t>20000000</t>
-  </si>
-  <si>
-    <t>22-04-2020</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Hộp để bút</t>
-  </si>
-  <si>
-    <t>HĐB</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>Combo Vip</t>
-  </si>
-  <si>
-    <t>35000</t>
-  </si>
-  <si>
-    <t>875000</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Khẩu trang</t>
-  </si>
-  <si>
-    <t>KT</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>Chiếc</t>
-  </si>
-  <si>
-    <t>2500</t>
-  </si>
-  <si>
-    <t>125000</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Mai Phương Thúy</t>
-  </si>
-  <si>
-    <t>MPT</t>
-  </si>
-  <si>
-    <t>Combo Gold</t>
-  </si>
-  <si>
-    <t>800000</t>
-  </si>
-  <si>
-    <t>20-04-2020</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Ngọc Trinh</t>
-  </si>
-  <si>
-    <t>NT</t>
-  </si>
-  <si>
-    <t>10000000</t>
-  </si>
-  <si>
-    <t>4000000</t>
-  </si>
-  <si>
-    <t>CN Hà Nội</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>CN Sài Gòn</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>Quyen2</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>cân</t>
-  </si>
-  <si>
-    <t>60000</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>PGD Cần Giuộc</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>CN Long An</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>Siêu phẩm 1</t>
-  </si>
-  <si>
-    <t>Sieupham1</t>
-  </si>
-  <si>
-    <t>255000</t>
-  </si>
-  <si>
-    <t>1275000</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>6375000</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>6120000</t>
-  </si>
-  <si>
-    <t>2550000</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>5100000</t>
   </si>
   <si>
     <t>Evaluation Only. Created with Aspose.Cells for .NET.Copyright 2003 - 2018 Aspose Pty Ltd.</t>
@@ -879,7 +753,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35AF528D-71AB-4BC7-9A2D-A451951AFBDC}">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="E16" sqref="E16"/>
@@ -1013,25 +887,25 @@
     </row>
     <row r="6" spans="1:11" s="2" customFormat="1" ht="15.75">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>20</v>
@@ -1040,7 +914,7 @@
         <v>21</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>0</v>
@@ -1048,25 +922,25 @@
     </row>
     <row r="7" spans="1:11" s="2" customFormat="1" ht="15.75">
       <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>20</v>
@@ -1075,7 +949,7 @@
         <v>21</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>0</v>
@@ -1083,25 +957,25 @@
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1" ht="15.75">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>20</v>
@@ -1110,7 +984,7 @@
         <v>21</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>0</v>
@@ -1118,7 +992,7 @@
     </row>
     <row r="9" spans="1:11" s="2" customFormat="1" ht="15.75">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>14</v>
@@ -1127,7 +1001,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>17</v>
@@ -1136,7 +1010,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>20</v>
@@ -1145,7 +1019,7 @@
         <v>21</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>0</v>
@@ -1153,7 +1027,7 @@
     </row>
     <row r="10" spans="1:11" s="2" customFormat="1" ht="15.75">
       <c r="A10" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>14</v>
@@ -1162,7 +1036,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>17</v>
@@ -1171,7 +1045,7 @@
         <v>18</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>20</v>
@@ -1180,7 +1054,7 @@
         <v>21</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>0</v>
@@ -1188,34 +1062,34 @@
     </row>
     <row r="11" spans="1:11" s="2" customFormat="1" ht="15.75">
       <c r="A11" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>0</v>
@@ -1223,34 +1097,34 @@
     </row>
     <row r="12" spans="1:11" s="2" customFormat="1" ht="15.75">
       <c r="A12" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>0</v>
@@ -1258,34 +1132,34 @@
     </row>
     <row r="13" spans="1:11" s="2" customFormat="1" ht="15.75">
       <c r="A13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>0</v>
@@ -1293,28 +1167,28 @@
     </row>
     <row r="14" spans="1:11" s="2" customFormat="1" ht="15.75">
       <c r="A14" s="2" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>21</v>
@@ -1328,581 +1202,56 @@
     </row>
     <row r="15" spans="1:11" s="2" customFormat="1" ht="15.75">
       <c r="A15" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="2" customFormat="1" ht="15.75">
-      <c r="A16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="2" customFormat="1" ht="15.75">
-      <c r="A17" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="2" customFormat="1" ht="15.75">
-      <c r="A18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="2" customFormat="1" ht="15.75">
-      <c r="A19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="2" customFormat="1" ht="15.75">
-      <c r="A20" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="2" customFormat="1" ht="15.75">
-      <c r="A21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="2" customFormat="1" ht="15.75">
-      <c r="A22" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="2" customFormat="1" ht="15.75">
-      <c r="A23" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="2" customFormat="1" ht="15.75">
-      <c r="A24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="2" customFormat="1" ht="15.75">
-      <c r="A25" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="2" customFormat="1" ht="15.75">
-      <c r="A26" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="2" customFormat="1" ht="15.75">
-      <c r="A27" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="2" customFormat="1" ht="15.75">
-      <c r="A28" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="2" customFormat="1" ht="15.75">
-      <c r="A29" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="2" customFormat="1" ht="15.75">
-      <c r="A30" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" s="2" customFormat="1" ht="15.75"/>
-    <row r="32" spans="1:2" s="2" customFormat="1" ht="15.75">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
-    </row>
-    <row r="33" spans="1:9" s="2" customFormat="1" ht="15.75">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-    </row>
-    <row r="34" s="2" customFormat="1" ht="15.75"/>
+    <row r="16" s="2" customFormat="1" ht="15.75"/>
+    <row r="17" spans="1:2" s="2" customFormat="1" ht="15.75">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+    </row>
+    <row r="18" spans="1:9" s="2" customFormat="1" ht="15.75">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="15.75"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:K1"/>
@@ -1923,7 +1272,7 @@
   <sheetData>
     <row r="5" spans="1:1" ht="23.25" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
